--- a/TestsDocumentation.xlsx
+++ b/TestsDocumentation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karol\Desktop\Testy excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karol\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B49B55D3-4FFD-402B-B768-BA162F4E7A1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C250854F-9742-4781-BBD5-96E193F80375}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6045" yWindow="4845" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -453,11 +453,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -742,18 +746,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="49" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="A73" sqref="A1:C93"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B75" sqref="B75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="63.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="50.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="69.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="56" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -764,706 +768,706 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>4</v>
+        <v>91</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>92</v>
       </c>
       <c r="B3" s="1">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>94</v>
       </c>
       <c r="B4" s="1">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>96</v>
       </c>
       <c r="B5" s="1">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>97</v>
       </c>
       <c r="B6" s="1">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>99</v>
       </c>
       <c r="B7" s="1">
         <v>403</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>100</v>
       </c>
       <c r="B8" s="1">
+        <v>401</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B9" s="1">
+        <v>200</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B10" s="4">
+        <v>200</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B11" s="4">
+        <v>404</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B12" s="4">
+        <v>200</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B13" s="4">
+        <v>403</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B14" s="4">
         <v>204</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="1">
-        <v>403</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="1">
-        <v>200</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="1">
-        <v>202</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="1">
-        <v>403</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" s="1">
-        <v>403</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" s="1">
-        <v>202</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15" s="1">
-        <v>403</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" s="1">
-        <v>202</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17" s="1">
-        <v>200</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" s="1">
-        <v>403</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B19" s="1">
-        <v>403</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B20" s="1">
-        <v>201</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B21" s="1">
-        <v>403</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C14" s="4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B15" s="4">
+        <v>403</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B16" s="4">
+        <v>200</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B17" s="4">
+        <v>200</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B18" s="4">
+        <v>403</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B19" s="4">
+        <v>200</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="B20" s="4">
+        <v>200</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B21" s="4">
+        <v>403</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>28</v>
+        <v>121</v>
       </c>
       <c r="B22" s="1">
-        <v>403</v>
+        <v>200</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>29</v>
       </c>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B24" s="1">
-        <v>200</v>
-      </c>
-      <c r="C24" s="1" t="s">
+      <c r="B24" s="4">
+        <v>200</v>
+      </c>
+      <c r="C24" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B25" s="1">
-        <v>200</v>
-      </c>
-      <c r="C25" s="1" t="s">
+      <c r="B25" s="4">
+        <v>200</v>
+      </c>
+      <c r="C25" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B26" s="1">
-        <v>403</v>
-      </c>
-      <c r="C26" s="1" t="s">
+      <c r="B26" s="4">
+        <v>403</v>
+      </c>
+      <c r="C26" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B27" s="1">
+      <c r="B27" s="4">
         <v>201</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C27" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B28" s="1">
+      <c r="B28" s="4">
         <v>400</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B29" s="1">
+      <c r="B29" s="4">
         <v>400</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C29" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B30" s="1">
-        <v>200</v>
-      </c>
-      <c r="C30" s="1" t="s">
+      <c r="B30" s="4">
+        <v>200</v>
+      </c>
+      <c r="C30" s="4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B31" s="1">
+      <c r="B31" s="4">
         <v>404</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C31" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B32" s="1">
-        <v>403</v>
-      </c>
-      <c r="C32" s="1" t="s">
+      <c r="B32" s="4">
+        <v>403</v>
+      </c>
+      <c r="C32" s="4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B33" s="1">
-        <v>200</v>
-      </c>
-      <c r="C33" s="1" t="s">
+      <c r="B33" s="4">
+        <v>200</v>
+      </c>
+      <c r="C33" s="4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B34" s="1">
-        <v>200</v>
-      </c>
-      <c r="C34" s="1" t="s">
+      <c r="B34" s="4">
+        <v>200</v>
+      </c>
+      <c r="C34" s="4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="1" t="s">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B35" s="1">
-        <v>403</v>
-      </c>
-      <c r="C35" s="1" t="s">
+      <c r="B35" s="4">
+        <v>403</v>
+      </c>
+      <c r="C35" s="4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="1" t="s">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B36" s="1">
-        <v>403</v>
-      </c>
-      <c r="C36" s="1" t="s">
+      <c r="B36" s="4">
+        <v>403</v>
+      </c>
+      <c r="C36" s="4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B37" s="1">
-        <v>200</v>
-      </c>
-      <c r="C37" s="1" t="s">
+      <c r="B37" s="4">
+        <v>200</v>
+      </c>
+      <c r="C37" s="4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" s="1" t="s">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B38" s="1">
+      <c r="B38" s="4">
         <v>204</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C38" s="4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" s="1" t="s">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B39" s="1">
-        <v>403</v>
-      </c>
-      <c r="C39" s="1" t="s">
+      <c r="B39" s="4">
+        <v>403</v>
+      </c>
+      <c r="C39" s="4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" s="1" t="s">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B40" s="1">
-        <v>403</v>
-      </c>
-      <c r="C40" s="1" t="s">
+      <c r="B40" s="4">
+        <v>403</v>
+      </c>
+      <c r="C40" s="4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" s="1" t="s">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B41" s="1">
-        <v>403</v>
-      </c>
-      <c r="C41" s="1" t="s">
+      <c r="B41" s="4">
+        <v>403</v>
+      </c>
+      <c r="C41" s="4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>52</v>
       </c>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" s="1" t="s">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B43" s="1">
-        <v>200</v>
-      </c>
-      <c r="C43" s="1" t="s">
+      <c r="B43" s="4">
+        <v>200</v>
+      </c>
+      <c r="C43" s="4" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44" s="1" t="s">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B44" s="1">
-        <v>403</v>
-      </c>
-      <c r="C44" s="1" t="s">
+      <c r="B44" s="4">
+        <v>403</v>
+      </c>
+      <c r="C44" s="4" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45" s="1" t="s">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B45" s="1">
+      <c r="B45" s="4">
         <v>201</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="C45" s="4" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46" s="1" t="s">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B46" s="1">
+      <c r="B46" s="4">
         <v>201</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="C46" s="4" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47" s="1" t="s">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B47" s="1">
-        <v>403</v>
-      </c>
-      <c r="C47" s="1" t="s">
+      <c r="B47" s="4">
+        <v>403</v>
+      </c>
+      <c r="C47" s="4" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A48" s="1" t="s">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B48" s="1">
-        <v>403</v>
-      </c>
-      <c r="C48" s="1" t="s">
+      <c r="B48" s="4">
+        <v>403</v>
+      </c>
+      <c r="C48" s="4" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A49" s="1" t="s">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B49" s="1">
+      <c r="B49" s="4">
         <v>204</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="C49" s="4" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A50" s="1" t="s">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B50" s="1">
+      <c r="B50" s="4">
         <v>204</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="C50" s="4" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A51" s="1" t="s">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="B51" s="1">
+      <c r="B51" s="4">
         <v>204</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="C51" s="4" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A52" s="1" t="s">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="B52" s="1">
-        <v>403</v>
-      </c>
-      <c r="C52" s="1" t="s">
+      <c r="B52" s="4">
+        <v>403</v>
+      </c>
+      <c r="C52" s="4" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A53" s="1" t="s">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B53" s="1">
-        <v>403</v>
-      </c>
-      <c r="C53" s="1" t="s">
+      <c r="B53" s="4">
+        <v>403</v>
+      </c>
+      <c r="C53" s="4" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A54" s="1" t="s">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="B54" s="1">
-        <v>403</v>
-      </c>
-      <c r="C54" s="1" t="s">
+      <c r="B54" s="4">
+        <v>403</v>
+      </c>
+      <c r="C54" s="4" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A55" s="1" t="s">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="B55" s="1">
-        <v>403</v>
-      </c>
-      <c r="C55" s="1" t="s">
+      <c r="B55" s="4">
+        <v>403</v>
+      </c>
+      <c r="C55" s="4" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A56" s="1" t="s">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="B56" s="1">
-        <v>200</v>
-      </c>
-      <c r="C56" s="1" t="s">
+      <c r="B56" s="4">
+        <v>200</v>
+      </c>
+      <c r="C56" s="4" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A57" s="1" t="s">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="B57" s="1">
-        <v>403</v>
-      </c>
-      <c r="C57" s="1" t="s">
+      <c r="B57" s="4">
+        <v>403</v>
+      </c>
+      <c r="C57" s="4" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A58" s="1" t="s">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="B58" s="1">
+      <c r="B58" s="4">
         <v>404</v>
       </c>
-      <c r="C58" s="1" t="s">
+      <c r="C58" s="4" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A59" s="1" t="s">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="B59" s="1">
-        <v>403</v>
-      </c>
-      <c r="C59" s="1" t="s">
+      <c r="B59" s="4">
+        <v>403</v>
+      </c>
+      <c r="C59" s="4" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A60" s="3" t="s">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="B60" s="3"/>
-      <c r="C60" s="3"/>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A61" s="1" t="s">
+      <c r="B60" s="5"/>
+      <c r="C60" s="5"/>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="B61" s="1">
-        <v>200</v>
-      </c>
-      <c r="C61" s="1" t="s">
+      <c r="B61" s="4">
+        <v>200</v>
+      </c>
+      <c r="C61" s="4" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A62" s="1" t="s">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="B62" s="1">
-        <v>403</v>
-      </c>
-      <c r="C62" s="1" t="s">
+      <c r="B62" s="4">
+        <v>403</v>
+      </c>
+      <c r="C62" s="4" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A63" s="1" t="s">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="B63" s="1">
+      <c r="B63" s="4">
         <v>201</v>
       </c>
-      <c r="C63" s="1" t="s">
+      <c r="C63" s="4" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A64" s="1" t="s">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="B64" s="1">
-        <v>403</v>
-      </c>
-      <c r="C64" s="1" t="s">
+      <c r="B64" s="4">
+        <v>403</v>
+      </c>
+      <c r="C64" s="4" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A65" s="1" t="s">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="B65" s="1">
-        <v>200</v>
-      </c>
-      <c r="C65" s="1" t="s">
+      <c r="B65" s="4">
+        <v>200</v>
+      </c>
+      <c r="C65" s="4" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A66" s="1" t="s">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="B66" s="1">
-        <v>403</v>
-      </c>
-      <c r="C66" s="1" t="s">
+      <c r="B66" s="4">
+        <v>403</v>
+      </c>
+      <c r="C66" s="4" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>82</v>
       </c>
@@ -1474,7 +1478,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>86</v>
       </c>
@@ -1485,7 +1489,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>87</v>
       </c>
@@ -1496,7 +1500,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>88</v>
       </c>
@@ -1507,7 +1511,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>89</v>
       </c>
@@ -1518,7 +1522,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>90</v>
       </c>
@@ -1529,231 +1533,231 @@
         <v>84</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>91</v>
+        <v>4</v>
       </c>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>92</v>
+        <v>3</v>
       </c>
       <c r="B74" s="1">
+        <v>200</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B75" s="1">
         <v>201</v>
       </c>
-      <c r="C74" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A75" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B75" s="1">
+      <c r="C75" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B76" s="4">
+        <v>200</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B77" s="4">
         <v>202</v>
       </c>
-      <c r="C75" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A76" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B76" s="1">
-        <v>400</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A77" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B77" s="1">
-        <v>200</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A78" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B78" s="1">
-        <v>403</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A79" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B79" s="1">
-        <v>401</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A80" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B80" s="1">
-        <v>200</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C77" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B78" s="4">
+        <v>403</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B79" s="4">
+        <v>204</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B80" s="4">
+        <v>403</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>103</v>
+        <v>13</v>
       </c>
       <c r="B81" s="1">
         <v>200</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>105</v>
+        <v>15</v>
       </c>
       <c r="B82" s="1">
-        <v>404</v>
+        <v>202</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>107</v>
+        <v>17</v>
       </c>
       <c r="B83" s="1">
-        <v>200</v>
+        <v>403</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A84" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B84" s="1">
-        <v>403</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A85" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="B85" s="1">
-        <v>204</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A86" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B86" s="1">
-        <v>403</v>
-      </c>
-      <c r="C86" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A87" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B87" s="1">
-        <v>200</v>
-      </c>
-      <c r="C87" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A88" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="B88" s="1">
-        <v>200</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A89" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="B89" s="1">
-        <v>403</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A90" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="B90" s="1">
-        <v>200</v>
-      </c>
-      <c r="C90" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A91" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="B91" s="1">
-        <v>200</v>
-      </c>
-      <c r="C91" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A92" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B92" s="1">
-        <v>403</v>
-      </c>
-      <c r="C92" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A93" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="B93" s="1">
-        <v>200</v>
-      </c>
-      <c r="C93" s="1" t="s">
-        <v>122</v>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B84" s="4">
+        <v>403</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B85" s="4">
+        <v>202</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B86" s="4">
+        <v>403</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B87" s="4">
+        <v>202</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B88" s="4">
+        <v>200</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B89" s="4">
+        <v>403</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B90" s="4">
+        <v>403</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B91" s="4">
+        <v>201</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B92" s="4">
+        <v>403</v>
+      </c>
+      <c r="C92" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B93" s="4">
+        <v>403</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
